--- a/full/sliding_window_results_window_5.xlsx
+++ b/full/sliding_window_results_window_5.xlsx
@@ -468,13 +468,13 @@
         <v>30.48</v>
       </c>
       <c r="C2" t="n">
-        <v>30.67905613690795</v>
+        <v>30.69556833785708</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1990561369079522</v>
+        <v>0.2155683378570785</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03962334564071741</v>
+        <v>0.04646970828646355</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>30.95</v>
       </c>
       <c r="C3" t="n">
-        <v>31.64432530501214</v>
+        <v>31.71494785784079</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6943253050121392</v>
+        <v>0.7649478578407951</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4820876291802001</v>
+        <v>0.5851452252152213</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>31.38</v>
       </c>
       <c r="C4" t="n">
-        <v>32.39583819563916</v>
+        <v>32.39790487165192</v>
       </c>
       <c r="D4" t="n">
-        <v>1.015838195639159</v>
+        <v>1.017904871651918</v>
       </c>
       <c r="E4" t="n">
-        <v>1.031927239719422</v>
+        <v>1.036130327732708</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>32.28</v>
       </c>
       <c r="C5" t="n">
-        <v>33.63314028340828</v>
+        <v>33.52888454057829</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35314028340828</v>
+        <v>1.248884540578288</v>
       </c>
       <c r="E5" t="n">
-        <v>1.83098862658224</v>
+        <v>1.559712595695442</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>33.1</v>
       </c>
       <c r="C6" t="n">
-        <v>34.47653722719473</v>
+        <v>34.15809355401579</v>
       </c>
       <c r="D6" t="n">
-        <v>1.376537227194731</v>
+        <v>1.058093554015791</v>
       </c>
       <c r="E6" t="n">
-        <v>1.894854737852959</v>
+        <v>1.119561969049768</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>34.4</v>
       </c>
       <c r="C7" t="n">
-        <v>35.8141782295574</v>
+        <v>35.70556438235569</v>
       </c>
       <c r="D7" t="n">
-        <v>1.4141782295574</v>
+        <v>1.305564382355691</v>
       </c>
       <c r="E7" t="n">
-        <v>1.999900064954103</v>
+        <v>1.704498356475796</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>36.3</v>
       </c>
       <c r="C8" t="n">
-        <v>37.53836837335595</v>
+        <v>37.57436734532021</v>
       </c>
       <c r="D8" t="n">
-        <v>1.238368373355954</v>
+        <v>1.274367345320215</v>
       </c>
       <c r="E8" t="n">
-        <v>1.533556228128271</v>
+        <v>1.624012130818492</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>38.5</v>
       </c>
       <c r="C9" t="n">
-        <v>39.50471735856771</v>
+        <v>39.93062282439578</v>
       </c>
       <c r="D9" t="n">
-        <v>1.00471735856771</v>
+        <v>1.430622824395776</v>
       </c>
       <c r="E9" t="n">
-        <v>1.009456970607276</v>
+        <v>2.046681665682148</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>40.1</v>
       </c>
       <c r="C10" t="n">
-        <v>41.52102729124357</v>
+        <v>41.49177396726412</v>
       </c>
       <c r="D10" t="n">
-        <v>1.421027291243568</v>
+        <v>1.391773967264122</v>
       </c>
       <c r="E10" t="n">
-        <v>2.019318562459033</v>
+        <v>1.937034775954113</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>41.5</v>
       </c>
       <c r="C11" t="n">
-        <v>42.91274481849766</v>
+        <v>42.78469844080345</v>
       </c>
       <c r="D11" t="n">
-        <v>1.412744818497657</v>
+        <v>1.284698440803446</v>
       </c>
       <c r="E11" t="n">
-        <v>1.995847922191978</v>
+        <v>1.650450083802805</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>43.7</v>
       </c>
       <c r="C12" t="n">
-        <v>45.20898639441406</v>
+        <v>45.77895687839486</v>
       </c>
       <c r="D12" t="n">
-        <v>1.508986394414059</v>
+        <v>2.078956878394855</v>
       </c>
       <c r="E12" t="n">
-        <v>2.277039938526742</v>
+        <v>4.322061702225281</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>48.1</v>
       </c>
       <c r="C13" t="n">
-        <v>50.18131960927799</v>
+        <v>49.34768128363767</v>
       </c>
       <c r="D13" t="n">
-        <v>2.08131960927799</v>
+        <v>1.247681283637668</v>
       </c>
       <c r="E13" t="n">
-        <v>4.331891315965087</v>
+        <v>1.556708585539739</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>55.44345875394021</v>
+        <v>55.29849964601836</v>
       </c>
       <c r="D14" t="n">
-        <v>2.443458753940206</v>
+        <v>2.298499646018364</v>
       </c>
       <c r="E14" t="n">
-        <v>5.970490682207024</v>
+        <v>5.283100622746543</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>56.1</v>
       </c>
       <c r="C15" t="n">
-        <v>57.70448180555272</v>
+        <v>57.65718524935071</v>
       </c>
       <c r="D15" t="n">
-        <v>1.604481805552716</v>
+        <v>1.557185249350709</v>
       </c>
       <c r="E15" t="n">
-        <v>2.574361864349703</v>
+        <v>2.424825900795431</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>60</v>
       </c>
       <c r="C16" t="n">
-        <v>61.1328700140573</v>
+        <v>61.36184065929056</v>
       </c>
       <c r="D16" t="n">
-        <v>1.132870014057303</v>
+        <v>1.361840659290564</v>
       </c>
       <c r="E16" t="n">
-        <v>1.283394468750195</v>
+        <v>1.854609981296959</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>63.9</v>
       </c>
       <c r="C17" t="n">
-        <v>64.56036030085443</v>
+        <v>64.57625838362375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6603603008544283</v>
+        <v>0.6762583836237539</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4360757269445511</v>
+        <v>0.4573254014214123</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>72.72612997537746</v>
+        <v>72.7491168451065</v>
       </c>
       <c r="D18" t="n">
-        <v>2.126129975377467</v>
+        <v>2.149116845106505</v>
       </c>
       <c r="E18" t="n">
-        <v>4.520428672198586</v>
+        <v>4.618703213920537</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>80.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>84.22113005984389</v>
+        <v>84.15065556816909</v>
       </c>
       <c r="D19" t="n">
-        <v>3.321130059843881</v>
+        <v>3.25065556816908</v>
       </c>
       <c r="E19" t="n">
-        <v>11.02990487439862</v>
+        <v>10.56676162286864</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>89.09999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>91.46463059330473</v>
+        <v>91.55688491222375</v>
       </c>
       <c r="D20" t="n">
-        <v>2.364630593304739</v>
+        <v>2.456884912223757</v>
       </c>
       <c r="E20" t="n">
-        <v>5.59147784279272</v>
+        <v>6.036283471912737</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>95</v>
       </c>
       <c r="C21" t="n">
-        <v>95.9133261781204</v>
+        <v>96.2509538499986</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9133261781203998</v>
+        <v>1.250953849998595</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8341647076400164</v>
+        <v>1.564885534826308</v>
       </c>
     </row>
     <row r="22">
@@ -808,11 +808,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>29.28662690412774</v>
+        <v>29.32045939789697</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>52.68679142108945</v>
+        <v>51.99496287626655</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>2.634339571054472</v>
+        <v>2.599748143813327</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_5.xlsx
+++ b/full/sliding_window_results_window_5.xlsx
@@ -468,13 +468,13 @@
         <v>29.54</v>
       </c>
       <c r="C2" t="n">
-        <v>28.77159668602728</v>
+        <v>28.42386611449396</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7684033139727191</v>
+        <v>-1.116133885506034</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5904436529242572</v>
+        <v>1.245754850374797</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.55</v>
       </c>
       <c r="C3" t="n">
-        <v>29.90122115551857</v>
+        <v>28.15315545840144</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3512211555185694</v>
+        <v>-1.396844541598561</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1233563000837991</v>
+        <v>1.951174673393695</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.75</v>
       </c>
       <c r="C4" t="n">
-        <v>29.66499987532517</v>
+        <v>28.9379931344628</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.08500012467483486</v>
+        <v>-0.8120068655371959</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007225021194737471</v>
+        <v>0.6593551496795418</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.84</v>
       </c>
       <c r="C5" t="n">
-        <v>30.5415314462977</v>
+        <v>29.79311310934098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7015314462976967</v>
+        <v>-0.04688689065902452</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4921463701445381</v>
+        <v>0.002198380515671321</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.81</v>
       </c>
       <c r="C6" t="n">
-        <v>30.41077861873373</v>
+        <v>29.74720110808241</v>
       </c>
       <c r="D6" t="n">
-        <v>0.600778618733731</v>
+        <v>-0.0627988919175877</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3609349487276097</v>
+        <v>0.003943700826076861</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.92</v>
       </c>
       <c r="C7" t="n">
-        <v>30.24578231115241</v>
+        <v>30.37403994010583</v>
       </c>
       <c r="D7" t="n">
-        <v>0.325782311152409</v>
+        <v>0.454039940105833</v>
       </c>
       <c r="E7" t="n">
-        <v>0.106134114259805</v>
+        <v>0.2061522672113084</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.98</v>
       </c>
       <c r="C8" t="n">
-        <v>29.62150842841587</v>
+        <v>29.87681417992178</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3584915715841319</v>
+        <v>-0.1031858200782168</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1285162068968608</v>
+        <v>0.01064731346521412</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.04</v>
       </c>
       <c r="C9" t="n">
-        <v>29.90509423108006</v>
+        <v>29.8686479616212</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1349057689199356</v>
+        <v>-0.171352038378803</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01819956648787905</v>
+        <v>0.02936152105657077</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.21</v>
       </c>
       <c r="C10" t="n">
-        <v>29.48238977579566</v>
+        <v>29.7351860059534</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7276102242043372</v>
+        <v>-0.4748139940466025</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5294166383666858</v>
+        <v>0.2254483289424871</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.22</v>
       </c>
       <c r="C11" t="n">
-        <v>29.87582778898143</v>
+        <v>29.51825535743507</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3441722110185665</v>
+        <v>-0.701744642564929</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1184545108374087</v>
+        <v>0.4924455433685799</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.38</v>
       </c>
       <c r="C12" t="n">
-        <v>29.71312480306775</v>
+        <v>30.16314046967677</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6668751969322457</v>
+        <v>-0.2168595303232337</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4447225282834215</v>
+        <v>0.04702805589201351</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.44</v>
       </c>
       <c r="C13" t="n">
-        <v>30.38637470091635</v>
+        <v>30.3018377452168</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.05362529908365588</v>
+        <v>-0.1381622547832038</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002875672701811543</v>
+        <v>0.01908880864677891</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.48</v>
       </c>
       <c r="C14" t="n">
-        <v>30.35189786770854</v>
+        <v>30.36586343673891</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1281021322914597</v>
+        <v>-0.1141365632610913</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01641015629761865</v>
+        <v>0.01302715507305311</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.69</v>
       </c>
       <c r="C15" t="n">
-        <v>30.59799747773</v>
+        <v>31.13742381630315</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.09200252226999694</v>
+        <v>0.4474238163031501</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008464464104041284</v>
+        <v>0.200188071395275</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.75</v>
       </c>
       <c r="C16" t="n">
-        <v>30.22668918367056</v>
+        <v>30.69108004341203</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5233108163294418</v>
+        <v>-0.05891995658796745</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2738542104873867</v>
+        <v>0.003471561284327969</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.94</v>
       </c>
       <c r="C17" t="n">
-        <v>30.66051695140128</v>
+        <v>31.60766271517742</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2794830485987241</v>
+        <v>0.6676627151774213</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07811077445403676</v>
+        <v>0.4457735012380863</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.95</v>
       </c>
       <c r="C18" t="n">
-        <v>30.93097425548262</v>
+        <v>31.07924284054112</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.01902574451737848</v>
+        <v>0.1292428405411208</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0003619789544405575</v>
+        <v>0.01670371183113757</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.02</v>
       </c>
       <c r="C19" t="n">
-        <v>31.52768362082061</v>
+        <v>31.58446960331086</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5076836208206146</v>
+        <v>0.564469603310858</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2577426588495296</v>
+        <v>0.3186259330619174</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.12</v>
       </c>
       <c r="C20" t="n">
-        <v>31.8954276512661</v>
+        <v>31.78522768947801</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7754276512660958</v>
+        <v>0.6652276894780087</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6012880423480539</v>
+        <v>0.44252787884825</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.28</v>
       </c>
       <c r="C21" t="n">
-        <v>32.01428376739394</v>
+        <v>32.34002021415262</v>
       </c>
       <c r="D21" t="n">
-        <v>0.73428376739394</v>
+        <v>1.060020214152622</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5391726510582378</v>
+        <v>1.123642854412172</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.38</v>
       </c>
       <c r="C22" t="n">
-        <v>31.81616876501472</v>
+        <v>31.82018021041069</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4361687650147168</v>
+        <v>0.4401802104106913</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1902431915744632</v>
+        <v>0.1937586176372005</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.58</v>
       </c>
       <c r="C23" t="n">
-        <v>32.19045575260361</v>
+        <v>32.2387495864978</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6104557526036132</v>
+        <v>0.6587495864977981</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3726562258868438</v>
+        <v>0.43395101771102</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.65</v>
       </c>
       <c r="C24" t="n">
-        <v>32.07760720707016</v>
+        <v>31.7615736532619</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4276072070701602</v>
+        <v>0.1115736532619032</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1828479235383429</v>
+        <v>0.01244868010220739</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.88</v>
       </c>
       <c r="C25" t="n">
-        <v>32.69388249805409</v>
+        <v>32.73824665571667</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8138824980540953</v>
+        <v>0.8582466557166661</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6624047206387744</v>
+        <v>0.7365873220488417</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.28</v>
       </c>
       <c r="C26" t="n">
-        <v>32.39883288137233</v>
+        <v>32.78377264559467</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1188328813723274</v>
+        <v>0.5037726455946725</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01412125369524963</v>
+        <v>0.2537868784494555</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.45</v>
       </c>
       <c r="C27" t="n">
-        <v>32.50268193461038</v>
+        <v>32.29237012431677</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0526819346103764</v>
+        <v>-0.1576298756832344</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002775386234291975</v>
+        <v>0.02484717770791193</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.85</v>
       </c>
       <c r="C28" t="n">
-        <v>32.74211580690621</v>
+        <v>33.76057012806505</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1078841930937884</v>
+        <v>0.9105701280650464</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01163899911949782</v>
+        <v>0.8291379581243951</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.9</v>
       </c>
       <c r="C29" t="n">
-        <v>32.8855232564657</v>
+        <v>32.59403198917764</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01447674353430273</v>
+        <v>-0.3059680108223617</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0002095761033579758</v>
+        <v>0.09361642364659284</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.1</v>
       </c>
       <c r="C30" t="n">
-        <v>32.91331340906391</v>
+        <v>32.85302398170048</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1866865909360911</v>
+        <v>-0.2469760182995202</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0348518832353394</v>
+        <v>0.06099715361508494</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.4</v>
       </c>
       <c r="C31" t="n">
-        <v>33.83299115305665</v>
+        <v>33.44428315374984</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4329911530566477</v>
+        <v>0.04428315374984493</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1874813386253253</v>
+        <v>0.001960997706032405</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.7</v>
       </c>
       <c r="C32" t="n">
-        <v>33.74871538907802</v>
+        <v>33.75897078536011</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0487153890780192</v>
+        <v>0.0589707853601098</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002373189133022792</v>
+        <v>0.003477553525988141</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.1</v>
       </c>
       <c r="C33" t="n">
-        <v>33.8940528257012</v>
+        <v>34.43429539726459</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2059471742987995</v>
+        <v>0.3342953972645901</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0424142386016601</v>
+        <v>0.1117534126322901</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.4</v>
       </c>
       <c r="C34" t="n">
-        <v>34.07701773910097</v>
+        <v>34.36562791655631</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3229822608990318</v>
+        <v>-0.03437208344368514</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1043175408554503</v>
+        <v>0.001181440120259654</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.9</v>
       </c>
       <c r="C35" t="n">
-        <v>34.6658757599753</v>
+        <v>35.03381626284589</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2341242400246983</v>
+        <v>0.1338162628458903</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05481415976714256</v>
+        <v>0.01790679220204041</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.3</v>
       </c>
       <c r="C36" t="n">
-        <v>35.7840420212037</v>
+        <v>35.0210822963886</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4840420212036989</v>
+        <v>-0.2789177036113983</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2342966782909621</v>
+        <v>0.07779508538785584</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.7</v>
       </c>
       <c r="C37" t="n">
-        <v>36.19699942473285</v>
+        <v>35.37734670561872</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4969994247328486</v>
+        <v>-0.3226532943812828</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2470084281847825</v>
+        <v>0.1041051483750947</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.3</v>
       </c>
       <c r="C38" t="n">
-        <v>36.38994972819609</v>
+        <v>35.65105844094344</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08994972819608904</v>
+        <v>-0.6489415590565599</v>
       </c>
       <c r="E38" t="n">
-        <v>0.008090953602550296</v>
+        <v>0.4211251470707587</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.8</v>
       </c>
       <c r="C39" t="n">
-        <v>36.97987452478498</v>
+        <v>36.02596915042613</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1798745247849851</v>
+        <v>-0.7740308495738688</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03235484466662422</v>
+        <v>0.5991237560920452</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.3</v>
       </c>
       <c r="C40" t="n">
-        <v>37.02470801298504</v>
+        <v>36.70783615399061</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2752919870149526</v>
+        <v>-0.5921638460093845</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07578567811464083</v>
+        <v>0.3506580205206261</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.9</v>
       </c>
       <c r="C41" t="n">
-        <v>37.96974537549301</v>
+        <v>38.19650375236694</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06974537549300663</v>
+        <v>0.2965037523669452</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00486441740266049</v>
+        <v>0.08791447516767874</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.5</v>
       </c>
       <c r="C42" t="n">
-        <v>38.60573691186258</v>
+        <v>38.50634900725598</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1057369118625786</v>
+        <v>0.006349007255984418</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01118029453023472</v>
+        <v>4.030989313654279e-05</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.9</v>
       </c>
       <c r="C43" t="n">
-        <v>39.01080985958171</v>
+        <v>38.71439974336509</v>
       </c>
       <c r="D43" t="n">
-        <v>0.110809859581714</v>
+        <v>-0.1856002566349062</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01227882498051917</v>
+        <v>0.03444745526294304</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>39.4</v>
       </c>
       <c r="C44" t="n">
-        <v>39.42546228338429</v>
+        <v>38.99983595173688</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02546228338429302</v>
+        <v>-0.4001640482631146</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006483278751420442</v>
+        <v>0.1601312655223243</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>39.9</v>
       </c>
       <c r="C45" t="n">
-        <v>39.7220449143099</v>
+        <v>39.98974513853209</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.177955085690094</v>
+        <v>0.08974513853209487</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0316680125229687</v>
+        <v>0.008054189890144899</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.1</v>
       </c>
       <c r="C46" t="n">
-        <v>39.88261139275777</v>
+        <v>40.2765666450357</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2173886072422349</v>
+        <v>0.1765666450356989</v>
       </c>
       <c r="E46" t="n">
-        <v>0.04725780655871865</v>
+        <v>0.03117578013916248</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.6</v>
       </c>
       <c r="C47" t="n">
-        <v>40.06105682113947</v>
+        <v>40.50062831565015</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.5389431788605279</v>
+        <v>-0.09937168434984756</v>
       </c>
       <c r="E47" t="n">
-        <v>0.290459750040291</v>
+        <v>0.009874731650525737</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.9</v>
       </c>
       <c r="C48" t="n">
-        <v>40.36163272153543</v>
+        <v>40.92595013331834</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.5383672784645697</v>
+        <v>0.0259501333183394</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2898393265213475</v>
+        <v>0.0006734094192395885</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.2</v>
       </c>
       <c r="C49" t="n">
-        <v>41.31439799775037</v>
+        <v>41.97935122073537</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1143979977503662</v>
+        <v>0.7793512207353714</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01308690188929279</v>
+        <v>0.6073883252617137</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.5</v>
       </c>
       <c r="C50" t="n">
-        <v>41.49454877040444</v>
+        <v>41.28656690707493</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.00545122959555755</v>
+        <v>-0.2134330929250723</v>
       </c>
       <c r="E50" t="n">
-        <v>2.971590410348253e-05</v>
+        <v>0.04555368515556255</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.8</v>
       </c>
       <c r="C51" t="n">
-        <v>42.02650361853983</v>
+        <v>41.0054191527864</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2265036185398372</v>
+        <v>-0.7945808472135951</v>
       </c>
       <c r="E51" t="n">
-        <v>0.05130388921164011</v>
+        <v>0.6313587227586746</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>1.835059353520354</v>
+        <v>-1.051637850429621</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>7.9111339447674</v>
+        <v>13.40139019331376</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.158222678895348</v>
+        <v>0.2680278038662752</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_5.xlsx
+++ b/full/sliding_window_results_window_5.xlsx
@@ -468,13 +468,13 @@
         <v>29.54</v>
       </c>
       <c r="C2" t="n">
-        <v>28.42386611449396</v>
+        <v>28.90040615077741</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.116133885506034</v>
+        <v>-0.6395938492225852</v>
       </c>
       <c r="E2" t="n">
-        <v>1.245754850374797</v>
+        <v>0.4090802919633631</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.55</v>
       </c>
       <c r="C3" t="n">
-        <v>28.15315545840144</v>
+        <v>28.45952939637375</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.396844541598561</v>
+        <v>-1.090470603626247</v>
       </c>
       <c r="E3" t="n">
-        <v>1.951174673393695</v>
+        <v>1.189126137372992</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.75</v>
       </c>
       <c r="C4" t="n">
-        <v>28.9379931344628</v>
+        <v>29.17757546969597</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8120068655371959</v>
+        <v>-0.5724245303040334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6593551496795418</v>
+        <v>0.3276698428937933</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.84</v>
       </c>
       <c r="C5" t="n">
-        <v>29.79311310934098</v>
+        <v>29.87258873586572</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04688689065902452</v>
+        <v>0.03258873586571909</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002198380515671321</v>
+        <v>0.001062025705325606</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.81</v>
       </c>
       <c r="C6" t="n">
-        <v>29.74720110808241</v>
+        <v>30.14214994149911</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0627988919175877</v>
+        <v>0.3321499414991074</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003943700826076861</v>
+        <v>0.1103235836378604</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.92</v>
       </c>
       <c r="C7" t="n">
-        <v>30.37403994010583</v>
+        <v>31.22814630518432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.454039940105833</v>
+        <v>1.308146305184323</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2061522672113084</v>
+        <v>1.711246755767396</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.98</v>
       </c>
       <c r="C8" t="n">
-        <v>29.87681417992178</v>
+        <v>30.0517475479041</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1031858200782168</v>
+        <v>0.07174754790409921</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01064731346521412</v>
+        <v>0.005147710630251011</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.04</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8686479616212</v>
+        <v>29.58681895122473</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.171352038378803</v>
+        <v>-0.4531810487752708</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02936152105657077</v>
+        <v>0.2053730629690543</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.21</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7351860059534</v>
+        <v>29.21769431886806</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4748139940466025</v>
+        <v>-0.9923056811319384</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2254483289424871</v>
+        <v>0.9846705648067202</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.22</v>
       </c>
       <c r="C11" t="n">
-        <v>29.51825535743507</v>
+        <v>29.28150210959193</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.701744642564929</v>
+        <v>-0.9384978904080654</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4924455433685799</v>
+        <v>0.8807782903003891</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.38</v>
       </c>
       <c r="C12" t="n">
-        <v>30.16314046967677</v>
+        <v>29.79255026168696</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2168595303232337</v>
+        <v>-0.5874497383130439</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04702805589201351</v>
+        <v>0.3450971950440638</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.44</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3018377452168</v>
+        <v>30.00482414797222</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1381622547832038</v>
+        <v>-0.4351758520277791</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01908880864677891</v>
+        <v>0.1893780221881035</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.48</v>
       </c>
       <c r="C14" t="n">
-        <v>30.36586343673891</v>
+        <v>30.2186694039527</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1141365632610913</v>
+        <v>-0.2613305960472978</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01302715507305311</v>
+        <v>0.06829368043043595</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.69</v>
       </c>
       <c r="C15" t="n">
-        <v>31.13742381630315</v>
+        <v>30.72849136517492</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4474238163031501</v>
+        <v>0.03849136517491658</v>
       </c>
       <c r="E15" t="n">
-        <v>0.200188071395275</v>
+        <v>0.001481585193028781</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.75</v>
       </c>
       <c r="C16" t="n">
-        <v>30.69108004341203</v>
+        <v>30.72218972545036</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.05891995658796745</v>
+        <v>-0.02781027454963692</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003471561284327969</v>
+        <v>0.0007734113705261828</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.94</v>
       </c>
       <c r="C17" t="n">
-        <v>31.60766271517742</v>
+        <v>31.39249217532264</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6676627151774213</v>
+        <v>0.452492175322643</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4457735012380863</v>
+        <v>0.2047491687282175</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.95</v>
       </c>
       <c r="C18" t="n">
-        <v>31.07924284054112</v>
+        <v>31.09816626037991</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1292428405411208</v>
+        <v>0.148166260379913</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01670371183113757</v>
+        <v>0.02195324071496817</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.02</v>
       </c>
       <c r="C19" t="n">
-        <v>31.58446960331086</v>
+        <v>31.40999423184258</v>
       </c>
       <c r="D19" t="n">
-        <v>0.564469603310858</v>
+        <v>0.3899942318425822</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3186259330619174</v>
+        <v>0.1520955008704858</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.12</v>
       </c>
       <c r="C20" t="n">
-        <v>31.78522768947801</v>
+        <v>31.48480336642039</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6652276894780087</v>
+        <v>0.3648033664203929</v>
       </c>
       <c r="E20" t="n">
-        <v>0.44252787884825</v>
+        <v>0.1330814961516515</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.28</v>
       </c>
       <c r="C21" t="n">
-        <v>32.34002021415262</v>
+        <v>32.05069552390793</v>
       </c>
       <c r="D21" t="n">
-        <v>1.060020214152622</v>
+        <v>0.770695523907925</v>
       </c>
       <c r="E21" t="n">
-        <v>1.123642854412172</v>
+        <v>0.5939715905717109</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.38</v>
       </c>
       <c r="C22" t="n">
-        <v>31.82018021041069</v>
+        <v>32.30349512336268</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4401802104106913</v>
+        <v>0.9234951233626809</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1937586176372005</v>
+        <v>0.8528432428746532</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.58</v>
       </c>
       <c r="C23" t="n">
-        <v>32.2387495864978</v>
+        <v>32.84230577035496</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6587495864977981</v>
+        <v>1.262305770354963</v>
       </c>
       <c r="E23" t="n">
-        <v>0.43395101771102</v>
+        <v>1.593415857871437</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.65</v>
       </c>
       <c r="C24" t="n">
-        <v>31.7615736532619</v>
+        <v>31.54438395625343</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1115736532619032</v>
+        <v>-0.1056160437465721</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01244868010220739</v>
+        <v>0.01115474869667783</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.88</v>
       </c>
       <c r="C25" t="n">
-        <v>32.73824665571667</v>
+        <v>32.38525372388418</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8582466557166661</v>
+        <v>0.5052537238841843</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7365873220488417</v>
+        <v>0.2552813254988356</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.28</v>
       </c>
       <c r="C26" t="n">
-        <v>32.78377264559467</v>
+        <v>32.38618745647584</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5037726455946725</v>
+        <v>0.1061874564758369</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2537868784494555</v>
+        <v>0.01127577591280776</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.45</v>
       </c>
       <c r="C27" t="n">
-        <v>32.29237012431677</v>
+        <v>32.28865295642957</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1576298756832344</v>
+        <v>-0.1613470435704372</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02484717770791193</v>
+        <v>0.02603286846892055</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.85</v>
       </c>
       <c r="C28" t="n">
-        <v>33.76057012806505</v>
+        <v>33.55229531432905</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9105701280650464</v>
+        <v>0.7022953143290493</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8291379581243951</v>
+        <v>0.4932187085285382</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.9</v>
       </c>
       <c r="C29" t="n">
-        <v>32.59403198917764</v>
+        <v>32.76648540632675</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.3059680108223617</v>
+        <v>-0.1335145936732474</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09361642364659284</v>
+        <v>0.01782614672373235</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.1</v>
       </c>
       <c r="C30" t="n">
-        <v>32.85302398170048</v>
+        <v>33.0153036588072</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2469760182995202</v>
+        <v>-0.084696341192803</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06099715361508494</v>
+        <v>0.007173470211447699</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.4</v>
       </c>
       <c r="C31" t="n">
-        <v>33.44428315374984</v>
+        <v>33.25013822409254</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04428315374984493</v>
+        <v>-0.1498617759074605</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001960997706032405</v>
+        <v>0.02245855187813792</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.7</v>
       </c>
       <c r="C32" t="n">
-        <v>33.75897078536011</v>
+        <v>33.71934972652726</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0589707853601098</v>
+        <v>0.01934972652725264</v>
       </c>
       <c r="E32" t="n">
-        <v>0.003477553525988141</v>
+        <v>0.0003744119166794646</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.1</v>
       </c>
       <c r="C33" t="n">
-        <v>34.43429539726459</v>
+        <v>34.37994650563068</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3342953972645901</v>
+        <v>0.2799465056306829</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1117534126322901</v>
+        <v>0.07837004601482998</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.4</v>
       </c>
       <c r="C34" t="n">
-        <v>34.36562791655631</v>
+        <v>34.57805705563512</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.03437208344368514</v>
+        <v>0.1780570556351222</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001181440120259654</v>
+        <v>0.031704315061449</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.9</v>
       </c>
       <c r="C35" t="n">
-        <v>35.03381626284589</v>
+        <v>35.10431318199566</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1338162628458903</v>
+        <v>0.2043131819956656</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01790679220204041</v>
+        <v>0.04174387633719398</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.3</v>
       </c>
       <c r="C36" t="n">
-        <v>35.0210822963886</v>
+        <v>35.05995389689723</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2789177036113983</v>
+        <v>-0.2400461031027703</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07779508538785584</v>
+        <v>0.05762213161482583</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.7</v>
       </c>
       <c r="C37" t="n">
-        <v>35.37734670561872</v>
+        <v>35.46322708061543</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3226532943812828</v>
+        <v>-0.2367729193845776</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1041051483750947</v>
+        <v>0.05606141535389567</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.3</v>
       </c>
       <c r="C38" t="n">
-        <v>35.65105844094344</v>
+        <v>35.91762885690809</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.6489415590565599</v>
+        <v>-0.382371143091909</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4211251470707587</v>
+        <v>0.1462076910694131</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.8</v>
       </c>
       <c r="C39" t="n">
-        <v>36.02596915042613</v>
+        <v>36.12823426949767</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.7740308495738688</v>
+        <v>-0.6717657305023224</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5991237560920452</v>
+        <v>0.4512691966773188</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.3</v>
       </c>
       <c r="C40" t="n">
-        <v>36.70783615399061</v>
+        <v>36.89867904996223</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.5921638460093845</v>
+        <v>-0.4013209500377641</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3506580205206261</v>
+        <v>0.1610585049392136</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.9</v>
       </c>
       <c r="C41" t="n">
-        <v>38.19650375236694</v>
+        <v>38.16968896258068</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2965037523669452</v>
+        <v>0.2696889625806804</v>
       </c>
       <c r="E41" t="n">
-        <v>0.08791447516767874</v>
+        <v>0.07273213653784365</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.5</v>
       </c>
       <c r="C42" t="n">
-        <v>38.50634900725598</v>
+        <v>38.58182345052895</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006349007255984418</v>
+        <v>0.08182345052895101</v>
       </c>
       <c r="E42" t="n">
-        <v>4.030989313654279e-05</v>
+        <v>0.006695077056463694</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.9</v>
       </c>
       <c r="C43" t="n">
-        <v>38.71439974336509</v>
+        <v>38.92687365465311</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1856002566349062</v>
+        <v>0.02687365465311586</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03444745526294304</v>
+        <v>0.0007221933144149359</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>39.4</v>
       </c>
       <c r="C44" t="n">
-        <v>38.99983595173688</v>
+        <v>39.18168440398711</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.4001640482631146</v>
+        <v>-0.2183155960128929</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1601312655223243</v>
+        <v>0.04766169946246464</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>39.9</v>
       </c>
       <c r="C45" t="n">
-        <v>39.98974513853209</v>
+        <v>39.70118365578885</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08974513853209487</v>
+        <v>-0.1988163442111528</v>
       </c>
       <c r="E45" t="n">
-        <v>0.008054189890144899</v>
+        <v>0.03952793872548759</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.1</v>
       </c>
       <c r="C46" t="n">
-        <v>40.2765666450357</v>
+        <v>39.15588413340394</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1765666450356989</v>
+        <v>-0.9441158665960643</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03117578013916248</v>
+        <v>0.8913547695584374</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.6</v>
       </c>
       <c r="C47" t="n">
-        <v>40.50062831565015</v>
+        <v>41.5954937134027</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.09937168434984756</v>
+        <v>0.9954937134026949</v>
       </c>
       <c r="E47" t="n">
-        <v>0.009874731650525737</v>
+        <v>0.9910077334242868</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.9</v>
       </c>
       <c r="C48" t="n">
-        <v>40.92595013331834</v>
+        <v>40.84604283111989</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0259501333183394</v>
+        <v>-0.05395716888011037</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0006734094192395885</v>
+        <v>0.002911376073556751</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.2</v>
       </c>
       <c r="C49" t="n">
-        <v>41.97935122073537</v>
+        <v>41.9128734457157</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7793512207353714</v>
+        <v>0.7128734457157009</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6073883252617137</v>
+        <v>0.5081885496065763</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.5</v>
       </c>
       <c r="C50" t="n">
-        <v>41.28656690707493</v>
+        <v>41.34109407413926</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2134330929250723</v>
+        <v>-0.1589059258607364</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04555368515556255</v>
+        <v>0.02525109327365785</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.8</v>
       </c>
       <c r="C51" t="n">
-        <v>41.0054191527864</v>
+        <v>41.20448300161956</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.7945808472135951</v>
+        <v>-0.5955169983804396</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6313587227586746</v>
+        <v>0.3546404953600485</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1.051637850429621</v>
+        <v>-0.5579480699789556</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>13.40139019331376</v>
+        <v>14.79113850535358</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.2680278038662752</v>
+        <v>0.2958227701070716</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_5.xlsx
+++ b/full/sliding_window_results_window_5.xlsx
@@ -468,13 +468,13 @@
         <v>29.54</v>
       </c>
       <c r="C2" t="n">
-        <v>28.90040615077741</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6395938492225852</v>
+        <v>-29.54</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4090802919633631</v>
+        <v>872.6116</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.55</v>
       </c>
       <c r="C3" t="n">
-        <v>28.45952939637375</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.090470603626247</v>
+        <v>-29.55</v>
       </c>
       <c r="E3" t="n">
-        <v>1.189126137372992</v>
+        <v>873.2025</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.75</v>
       </c>
       <c r="C4" t="n">
-        <v>29.17757546969597</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5724245303040334</v>
+        <v>-29.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3276698428937933</v>
+        <v>885.0625</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.84</v>
       </c>
       <c r="C5" t="n">
-        <v>29.87258873586572</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03258873586571909</v>
+        <v>-29.84</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001062025705325606</v>
+        <v>890.4256</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.81</v>
       </c>
       <c r="C6" t="n">
-        <v>30.14214994149911</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3321499414991074</v>
+        <v>-29.81</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1103235836378604</v>
+        <v>888.6360999999999</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.92</v>
       </c>
       <c r="C7" t="n">
-        <v>31.22814630518432</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.308146305184323</v>
+        <v>-29.92</v>
       </c>
       <c r="E7" t="n">
-        <v>1.711246755767396</v>
+        <v>895.2064000000001</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.98</v>
       </c>
       <c r="C8" t="n">
-        <v>30.0517475479041</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07174754790409921</v>
+        <v>-29.98</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005147710630251011</v>
+        <v>898.8004000000001</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.04</v>
       </c>
       <c r="C9" t="n">
-        <v>29.58681895122473</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4531810487752708</v>
+        <v>-30.04</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2053730629690543</v>
+        <v>902.4015999999999</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.21</v>
       </c>
       <c r="C10" t="n">
-        <v>29.21769431886806</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9923056811319384</v>
+        <v>-30.21</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9846705648067202</v>
+        <v>912.6441000000001</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.22</v>
       </c>
       <c r="C11" t="n">
-        <v>29.28150210959193</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9384978904080654</v>
+        <v>-30.22</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8807782903003891</v>
+        <v>913.2483999999999</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.38</v>
       </c>
       <c r="C12" t="n">
-        <v>29.79255026168696</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5874497383130439</v>
+        <v>-30.38</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3450971950440638</v>
+        <v>922.9444</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.44</v>
       </c>
       <c r="C13" t="n">
-        <v>30.00482414797222</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4351758520277791</v>
+        <v>-30.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1893780221881035</v>
+        <v>926.5936</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.48</v>
       </c>
       <c r="C14" t="n">
-        <v>30.2186694039527</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2613305960472978</v>
+        <v>-30.48</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06829368043043595</v>
+        <v>929.0304</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.69</v>
       </c>
       <c r="C15" t="n">
-        <v>30.72849136517492</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03849136517491658</v>
+        <v>-30.69</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001481585193028781</v>
+        <v>941.8761000000001</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.75</v>
       </c>
       <c r="C16" t="n">
-        <v>30.72218972545036</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02781027454963692</v>
+        <v>-30.75</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0007734113705261828</v>
+        <v>945.5625</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.94</v>
       </c>
       <c r="C17" t="n">
-        <v>31.39249217532264</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.452492175322643</v>
+        <v>-30.94</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2047491687282175</v>
+        <v>957.2836000000001</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.95</v>
       </c>
       <c r="C18" t="n">
-        <v>31.09816626037991</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.148166260379913</v>
+        <v>-30.95</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02195324071496817</v>
+        <v>957.9024999999999</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.02</v>
       </c>
       <c r="C19" t="n">
-        <v>31.40999423184258</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3899942318425822</v>
+        <v>-31.02</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1520955008704858</v>
+        <v>962.2404</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.12</v>
       </c>
       <c r="C20" t="n">
-        <v>31.48480336642039</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3648033664203929</v>
+        <v>-31.12</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1330814961516515</v>
+        <v>968.4544000000001</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.28</v>
       </c>
       <c r="C21" t="n">
-        <v>32.05069552390793</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.770695523907925</v>
+        <v>-31.28</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5939715905717109</v>
+        <v>978.4384000000001</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.38</v>
       </c>
       <c r="C22" t="n">
-        <v>32.30349512336268</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9234951233626809</v>
+        <v>-31.38</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8528432428746532</v>
+        <v>984.7044</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.58</v>
       </c>
       <c r="C23" t="n">
-        <v>32.84230577035496</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.262305770354963</v>
+        <v>-31.58</v>
       </c>
       <c r="E23" t="n">
-        <v>1.593415857871437</v>
+        <v>997.2963999999999</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.65</v>
       </c>
       <c r="C24" t="n">
-        <v>31.54438395625343</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1056160437465721</v>
+        <v>-31.65</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01115474869667783</v>
+        <v>1001.7225</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.88</v>
       </c>
       <c r="C25" t="n">
-        <v>32.38525372388418</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5052537238841843</v>
+        <v>-31.88</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2552813254988356</v>
+        <v>1016.3344</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.28</v>
       </c>
       <c r="C26" t="n">
-        <v>32.38618745647584</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1061874564758369</v>
+        <v>-32.28</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01127577591280776</v>
+        <v>1041.9984</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.45</v>
       </c>
       <c r="C27" t="n">
-        <v>32.28865295642957</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1613470435704372</v>
+        <v>-32.45</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02603286846892055</v>
+        <v>1053.0025</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.85</v>
       </c>
       <c r="C28" t="n">
-        <v>33.55229531432905</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7022953143290493</v>
+        <v>-32.85</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4932187085285382</v>
+        <v>1079.1225</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.9</v>
       </c>
       <c r="C29" t="n">
-        <v>32.76648540632675</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1335145936732474</v>
+        <v>-32.9</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01782614672373235</v>
+        <v>1082.41</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.1</v>
       </c>
       <c r="C30" t="n">
-        <v>33.0153036588072</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.084696341192803</v>
+        <v>-33.1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007173470211447699</v>
+        <v>1095.61</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.4</v>
       </c>
       <c r="C31" t="n">
-        <v>33.25013822409254</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1498617759074605</v>
+        <v>-33.4</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02245855187813792</v>
+        <v>1115.56</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.7</v>
       </c>
       <c r="C32" t="n">
-        <v>33.71934972652726</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01934972652725264</v>
+        <v>-33.7</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0003744119166794646</v>
+        <v>1135.69</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.1</v>
       </c>
       <c r="C33" t="n">
-        <v>34.37994650563068</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2799465056306829</v>
+        <v>-34.1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07837004601482998</v>
+        <v>1162.81</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.4</v>
       </c>
       <c r="C34" t="n">
-        <v>34.57805705563512</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1780570556351222</v>
+        <v>-34.4</v>
       </c>
       <c r="E34" t="n">
-        <v>0.031704315061449</v>
+        <v>1183.36</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.9</v>
       </c>
       <c r="C35" t="n">
-        <v>35.10431318199566</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2043131819956656</v>
+        <v>-34.9</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04174387633719398</v>
+        <v>1218.01</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.3</v>
       </c>
       <c r="C36" t="n">
-        <v>35.05995389689723</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2400461031027703</v>
+        <v>-35.3</v>
       </c>
       <c r="E36" t="n">
-        <v>0.05762213161482583</v>
+        <v>1246.09</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.7</v>
       </c>
       <c r="C37" t="n">
-        <v>35.46322708061543</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2367729193845776</v>
+        <v>-35.7</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05606141535389567</v>
+        <v>1274.49</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.3</v>
       </c>
       <c r="C38" t="n">
-        <v>35.91762885690809</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.382371143091909</v>
+        <v>-36.3</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1462076910694131</v>
+        <v>1317.69</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.8</v>
       </c>
       <c r="C39" t="n">
-        <v>36.12823426949767</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.6717657305023224</v>
+        <v>-36.8</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4512691966773188</v>
+        <v>1354.24</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.3</v>
       </c>
       <c r="C40" t="n">
-        <v>36.89867904996223</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.4013209500377641</v>
+        <v>-37.3</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1610585049392136</v>
+        <v>1391.29</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.9</v>
       </c>
       <c r="C41" t="n">
-        <v>38.16968896258068</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2696889625806804</v>
+        <v>-37.9</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07273213653784365</v>
+        <v>1436.41</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.5</v>
       </c>
       <c r="C42" t="n">
-        <v>38.58182345052895</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08182345052895101</v>
+        <v>-38.5</v>
       </c>
       <c r="E42" t="n">
-        <v>0.006695077056463694</v>
+        <v>1482.25</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.9</v>
       </c>
       <c r="C43" t="n">
-        <v>38.92687365465311</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02687365465311586</v>
+        <v>-38.9</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0007221933144149359</v>
+        <v>1513.21</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>39.4</v>
       </c>
       <c r="C44" t="n">
-        <v>39.18168440398711</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2183155960128929</v>
+        <v>-39.4</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04766169946246464</v>
+        <v>1552.36</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>39.9</v>
       </c>
       <c r="C45" t="n">
-        <v>39.70118365578885</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1988163442111528</v>
+        <v>-39.9</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03952793872548759</v>
+        <v>1592.01</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.1</v>
       </c>
       <c r="C46" t="n">
-        <v>39.15588413340394</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.9441158665960643</v>
+        <v>-40.1</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8913547695584374</v>
+        <v>1608.01</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.6</v>
       </c>
       <c r="C47" t="n">
-        <v>41.5954937134027</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9954937134026949</v>
+        <v>-40.6</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9910077334242868</v>
+        <v>1648.36</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.9</v>
       </c>
       <c r="C48" t="n">
-        <v>40.84604283111989</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.05395716888011037</v>
+        <v>-40.9</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002911376073556751</v>
+        <v>1672.81</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.2</v>
       </c>
       <c r="C49" t="n">
-        <v>41.9128734457157</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7128734457157009</v>
+        <v>-41.2</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5081885496065763</v>
+        <v>1697.44</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.5</v>
       </c>
       <c r="C50" t="n">
-        <v>41.34109407413926</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.1589059258607364</v>
+        <v>-41.5</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02525109327365785</v>
+        <v>1722.25</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.8</v>
       </c>
       <c r="C51" t="n">
-        <v>41.20448300161956</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.5955169983804396</v>
+        <v>-41.8</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3546404953600485</v>
+        <v>1747.24</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-0.5579480699789556</v>
+        <v>-1689.58</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>14.79113850535358</v>
+        <v>57846.3466</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.2958227701070716</v>
+        <v>1156.926932</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_5.xlsx
+++ b/full/sliding_window_results_window_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,234 +462,880 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.235703587532043</v>
+        <v>29.53999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.228675007820129</v>
+        <v>29.47850608825684</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007028579711914062</v>
+        <v>-0.0614939117431561</v>
       </c>
       <c r="E2" t="n">
-        <v>4.940093276672997e-05</v>
+        <v>0.003781501181475072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.23553991317749</v>
+        <v>29.55</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.24615204334259</v>
+        <v>29.57872581481934</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0106121301651001</v>
+        <v>0.02872581481933878</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001126173083321191</v>
+        <v>0.0008251724370349435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.232268095016479</v>
+        <v>29.75</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.228266835212708</v>
+        <v>29.77226829528809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004001259803771973</v>
+        <v>0.02226829528808594</v>
       </c>
       <c r="E4" t="n">
-        <v>1.601008079887833e-05</v>
+        <v>0.0004958769750373904</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.230795860290527</v>
+        <v>29.84</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.230311036109924</v>
+        <v>29.85246849060059</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004848241806030273</v>
+        <v>0.01246849060058253</v>
       </c>
       <c r="E5" t="n">
-        <v>2.350544860973969e-07</v>
+        <v>0.0001554632578568148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.231286525726318</v>
+        <v>29.81</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.230087995529175</v>
+        <v>29.76837730407715</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001198530197143555</v>
+        <v>-0.04162269592285384</v>
       </c>
       <c r="E6" t="n">
-        <v>1.436474576621549e-06</v>
+        <v>0.001732448815886353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.229487061500549</v>
+        <v>29.92</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.217207312583923</v>
+        <v>29.97674369812012</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01227974891662598</v>
+        <v>0.05674369812011548</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001507922279415652</v>
+        <v>0.003219847276346798</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.228505492210388</v>
+        <v>29.98</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.222182273864746</v>
+        <v>29.96967887878418</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00632321834564209</v>
+        <v>-0.01032112121582429</v>
       </c>
       <c r="E8" t="n">
-        <v>3.998308966401964e-05</v>
+        <v>0.0001065255431517383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.227523922920227</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.227225303649902</v>
+        <v>30.01896476745605</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000298619270324707</v>
+        <v>-0.02103523254393735</v>
       </c>
       <c r="E9" t="n">
-        <v>8.917346860926045e-08</v>
+        <v>0.0004424810081775212</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.224742889404297</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.223602771759033</v>
+        <v>30.08275413513184</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001140117645263672</v>
+        <v>-0.127245864868172</v>
       </c>
       <c r="E10" t="n">
-        <v>1.29986824504158e-06</v>
+        <v>0.01619151012604909</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.224579334259033</v>
+        <v>30.22</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.236066460609436</v>
+        <v>30.10870933532715</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01148712635040283</v>
+        <v>-0.1112906646728504</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001319540751865134</v>
+        <v>0.01238561204332484</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.221961855888367</v>
+        <v>30.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.222615957260132</v>
+        <v>30.3423900604248</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0006541013717651367</v>
+        <v>-0.03760993957519077</v>
       </c>
       <c r="E12" t="n">
-        <v>4.278485903341789e-07</v>
+        <v>0.001414507554849501</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>38</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.47225761413574</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03225761413574446</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001040553669730581</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.53724479675293</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.05724479675292571</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.003276966755283774</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.70342063903809</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01342063903808821</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0001801135521906573</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.80985069274902</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05985069274902344</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.003582105422538007</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.90888023376465</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.03111976623534929</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0009684398505427856</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.99744987487793</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04744987487792685</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.002251490625930913</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31.06381797790527</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.04381797790527742</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.00192001518770738</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31.22504997253418</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1050499725341751</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01103549672943095</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31.26894950866699</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.01105049133300895</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0001221133587009059</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31.35835838317871</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.02164161682128452</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0004683595786393049</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31.49699974060059</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.08300025939941236</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.00688904306036974</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31.65000000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>31.62515068054199</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.0248493194580135</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0006174886775264082</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="C25" t="n">
+        <v>32.07940292358398</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1994029235839889</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03976152593384213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32.34971237182617</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.06971237182617074</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.004859814785630284</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32.29516220092773</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.1548377990722685</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.02397474402154418</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>32.84261703491211</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.007382965087884941</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.450817348892789e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32.90000000000001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32.93135452270508</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.03135452270507244</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0009831060940629032</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>33.09999999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>33.03739547729492</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.06260452270507244</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.003919326263129931</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>33.40000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>33.3608512878418</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.03914871215820881</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.001532621663646286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>33.6848030090332</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.01519699096679972</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0002309485344449922</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>34.09999999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>34.13692092895508</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.03692092895508381</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.001363154994906346</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>34.40000000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>34.56180953979492</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1618095397949162</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.02618232716864257</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34.90000000000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>34.92041397094727</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.02041397094725994</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0004167302098355729</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35.32160568237305</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.02160568237304972</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0004668055108051112</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35.76400375366211</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.06400375366210653</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.004096480482839615</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36.27730178833008</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.02269821166991903</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0005152088130124486</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>36.54899978637695</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.251000213623044</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.06300110723881373</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>37.22383499145508</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.07616500854491903</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.005801108526647589</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>37.90000000000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>38.15065383911133</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2506538391113224</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.06282734706124471</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>38.34862899780273</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.1513710021972656</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.02291318030620459</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>38.90000000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>38.83325576782227</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.06674423217774006</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.004454792528996072</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>39.40000000000001</v>
+      </c>
+      <c r="C44" t="n">
+        <v>39.44806289672852</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.04806289672850994</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.002310042041935412</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>39.97536087036133</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.07536087036132244</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.005679260781616047</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>40.09999999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>39.98506546020508</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.1149345397949162</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.01320994843786917</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="C47" t="n">
+        <v>40.54170608520508</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.05829391479491619</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.003398180502116949</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>40.90000000000001</v>
+      </c>
+      <c r="C48" t="n">
+        <v>40.90790939331055</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.007909393310541191</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6.255850254083374e-05</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>41.20000000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>41.14603424072266</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.0539657592773537</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.002912303174381287</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>41.35286712646484</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.1471328735351562</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.02164808247471228</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>0</v>
       </c>
-      <c r="B13" t="n">
-        <v>-1.220980286598206</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.230387449264526</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.009407162666320801</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.849470759741962e-05</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B51" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>42.08319854736328</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2831985473632841</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.08020141722867426</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>0.0005943775177001953</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0.0005927408346906304</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>-0.05405052185060555</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.4698797641433656</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>4.939506834489293e-05</v>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0.009397595282867313</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_5.xlsx
+++ b/full/sliding_window_results_window_5.xlsx
@@ -468,13 +468,13 @@
         <v>29.54</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>29.49466895192899</v>
       </c>
       <c r="D2" t="n">
-        <v>-29.54</v>
+        <v>-0.04533104807100585</v>
       </c>
       <c r="E2" t="n">
-        <v>872.6116</v>
+        <v>0.002054903919215843</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.55</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30.36079783735651</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.55</v>
+        <v>0.8107978373565139</v>
       </c>
       <c r="E3" t="n">
-        <v>873.2025</v>
+        <v>0.657393133062</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>30.1949703584952</v>
       </c>
       <c r="D4" t="n">
-        <v>-29.75</v>
+        <v>0.4449703584951976</v>
       </c>
       <c r="E4" t="n">
-        <v>885.0625</v>
+        <v>0.1979986199393447</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.84</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>29.99044595807602</v>
       </c>
       <c r="D5" t="n">
-        <v>-29.84</v>
+        <v>0.1504459580760162</v>
       </c>
       <c r="E5" t="n">
-        <v>890.4256</v>
+        <v>0.02263398630141044</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.81</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>29.95599739102165</v>
       </c>
       <c r="D6" t="n">
-        <v>-29.81</v>
+        <v>0.1459973910216554</v>
       </c>
       <c r="E6" t="n">
-        <v>888.6360999999999</v>
+        <v>0.02131523818513015</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.92</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>29.86940292917211</v>
       </c>
       <c r="D7" t="n">
-        <v>-29.92</v>
+        <v>-0.05059707082789089</v>
       </c>
       <c r="E7" t="n">
-        <v>895.2064000000001</v>
+        <v>0.002560063576362607</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.98</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>30.08088788470883</v>
       </c>
       <c r="D8" t="n">
-        <v>-29.98</v>
+        <v>0.100887884708829</v>
       </c>
       <c r="E8" t="n">
-        <v>898.8004000000001</v>
+        <v>0.01017836528102198</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.04</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>30.14308335558982</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.04</v>
+        <v>0.1030833555898241</v>
       </c>
       <c r="E9" t="n">
-        <v>902.4015999999999</v>
+        <v>0.01062617819965811</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.21</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.15444665640283</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.21</v>
+        <v>-0.05555334359717534</v>
       </c>
       <c r="E10" t="n">
-        <v>912.6441000000001</v>
+        <v>0.003086173984825823</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.22</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>30.41531845668382</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.22</v>
+        <v>0.1953184566838218</v>
       </c>
       <c r="E11" t="n">
-        <v>913.2483999999999</v>
+        <v>0.03814929952134995</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.38</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30.1655915532424</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.38</v>
+        <v>-0.2144084467575986</v>
       </c>
       <c r="E12" t="n">
-        <v>922.9444</v>
+        <v>0.045970982041006</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.44</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>30.31270043564337</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.44</v>
+        <v>-0.1272995643566297</v>
       </c>
       <c r="E13" t="n">
-        <v>926.5936</v>
+        <v>0.01620517908538771</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.48</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>30.46299789611383</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.48</v>
+        <v>-0.01700210388616696</v>
       </c>
       <c r="E14" t="n">
-        <v>929.0304</v>
+        <v>0.0002890715365560138</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.69</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>30.37324704666575</v>
       </c>
       <c r="D15" t="n">
-        <v>-30.69</v>
+        <v>-0.3167529533342552</v>
       </c>
       <c r="E15" t="n">
-        <v>941.8761000000001</v>
+        <v>0.1003324334459729</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.75</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>30.12706205312848</v>
       </c>
       <c r="D16" t="n">
-        <v>-30.75</v>
+        <v>-0.6229379468715237</v>
       </c>
       <c r="E16" t="n">
-        <v>945.5625</v>
+        <v>0.3880516856525093</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.94</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>30.34781970634466</v>
       </c>
       <c r="D17" t="n">
-        <v>-30.94</v>
+        <v>-0.5921802936553426</v>
       </c>
       <c r="E17" t="n">
-        <v>957.2836000000001</v>
+        <v>0.3506775001937278</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.95</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>30.50366043477329</v>
       </c>
       <c r="D18" t="n">
-        <v>-30.95</v>
+        <v>-0.4463395652267117</v>
       </c>
       <c r="E18" t="n">
-        <v>957.9024999999999</v>
+        <v>0.19921900748677</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.02</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>30.65607259769465</v>
       </c>
       <c r="D19" t="n">
-        <v>-31.02</v>
+        <v>-0.3639274023053538</v>
       </c>
       <c r="E19" t="n">
-        <v>962.2404</v>
+        <v>0.1324431541487228</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.12</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>30.81190346429251</v>
       </c>
       <c r="D20" t="n">
-        <v>-31.12</v>
+        <v>-0.3080965357074881</v>
       </c>
       <c r="E20" t="n">
-        <v>968.4544000000001</v>
+        <v>0.09492347531495547</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.28</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>31.18871156966965</v>
       </c>
       <c r="D21" t="n">
-        <v>-31.28</v>
+        <v>-0.09128843033035139</v>
       </c>
       <c r="E21" t="n">
-        <v>978.4384000000001</v>
+        <v>0.008333577512179419</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.38</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>31.34030125405312</v>
       </c>
       <c r="D22" t="n">
-        <v>-31.38</v>
+        <v>-0.03969874594687539</v>
       </c>
       <c r="E22" t="n">
-        <v>984.7044</v>
+        <v>0.001575990429754555</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.58</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>31.54362987658435</v>
       </c>
       <c r="D23" t="n">
-        <v>-31.58</v>
+        <v>-0.03637012341564372</v>
       </c>
       <c r="E23" t="n">
-        <v>997.2963999999999</v>
+        <v>0.001322785877269155</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.65</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>31.55541674467346</v>
       </c>
       <c r="D24" t="n">
-        <v>-31.65</v>
+        <v>-0.09458325532654044</v>
       </c>
       <c r="E24" t="n">
-        <v>1001.7225</v>
+        <v>0.00894599218816554</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.88</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>31.83179620430884</v>
       </c>
       <c r="D25" t="n">
-        <v>-31.88</v>
+        <v>-0.04820379569115474</v>
       </c>
       <c r="E25" t="n">
-        <v>1016.3344</v>
+        <v>0.002323605919034588</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.28</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>32.25044675589361</v>
       </c>
       <c r="D26" t="n">
-        <v>-32.28</v>
+        <v>-0.02955324410639548</v>
       </c>
       <c r="E26" t="n">
-        <v>1041.9984</v>
+        <v>0.0008733942372121993</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.45</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>32.25729989508818</v>
       </c>
       <c r="D27" t="n">
-        <v>-32.45</v>
+        <v>-0.1927001049118218</v>
       </c>
       <c r="E27" t="n">
-        <v>1053.0025</v>
+        <v>0.03713333043302711</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.85</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>33.36429149320447</v>
       </c>
       <c r="D28" t="n">
-        <v>-32.85</v>
+        <v>0.5142914932044675</v>
       </c>
       <c r="E28" t="n">
-        <v>1079.1225</v>
+        <v>0.2644957399824809</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.9</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>33.14803942832026</v>
       </c>
       <c r="D29" t="n">
-        <v>-32.9</v>
+        <v>0.2480394283202614</v>
       </c>
       <c r="E29" t="n">
-        <v>1082.41</v>
+        <v>0.06152355800144208</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>33.38757620345185</v>
       </c>
       <c r="D30" t="n">
-        <v>-33.1</v>
+        <v>0.2875762034518488</v>
       </c>
       <c r="E30" t="n">
-        <v>1095.61</v>
+        <v>0.08270007279177911</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.4</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.28909050317021</v>
       </c>
       <c r="D31" t="n">
-        <v>-33.4</v>
+        <v>-0.110909496829791</v>
       </c>
       <c r="E31" t="n">
-        <v>1115.56</v>
+        <v>0.01230091648703742</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.7</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>33.92475531782942</v>
       </c>
       <c r="D32" t="n">
-        <v>-33.7</v>
+        <v>0.2247553178294197</v>
       </c>
       <c r="E32" t="n">
-        <v>1135.69</v>
+        <v>0.05051495289260347</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>34.66902840265841</v>
       </c>
       <c r="D33" t="n">
-        <v>-34.1</v>
+        <v>0.5690284026584038</v>
       </c>
       <c r="E33" t="n">
-        <v>1162.81</v>
+        <v>0.3237933230319746</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.4</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>34.63718235691104</v>
       </c>
       <c r="D34" t="n">
-        <v>-34.4</v>
+        <v>0.2371823569110418</v>
       </c>
       <c r="E34" t="n">
-        <v>1183.36</v>
+        <v>0.05625547042987684</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.9</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>35.05672620621896</v>
       </c>
       <c r="D35" t="n">
-        <v>-34.9</v>
+        <v>0.1567262062189627</v>
       </c>
       <c r="E35" t="n">
-        <v>1218.01</v>
+        <v>0.02456310371578883</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.3</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>34.87466341241493</v>
       </c>
       <c r="D36" t="n">
-        <v>-35.3</v>
+        <v>-0.4253365875850719</v>
       </c>
       <c r="E36" t="n">
-        <v>1246.09</v>
+        <v>0.1809112127385135</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.7</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>35.17604680191488</v>
       </c>
       <c r="D37" t="n">
-        <v>-35.7</v>
+        <v>-0.523953198085124</v>
       </c>
       <c r="E37" t="n">
-        <v>1274.49</v>
+        <v>0.2745269537836292</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.3</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>35.79052169454162</v>
       </c>
       <c r="D38" t="n">
-        <v>-36.3</v>
+        <v>-0.50947830545838</v>
       </c>
       <c r="E38" t="n">
-        <v>1317.69</v>
+        <v>0.2595681437327424</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.8</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>36.17600804826044</v>
       </c>
       <c r="D39" t="n">
-        <v>-36.8</v>
+        <v>-0.623991951739562</v>
       </c>
       <c r="E39" t="n">
-        <v>1354.24</v>
+        <v>0.3893659558357479</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.3</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>37.20473327999652</v>
       </c>
       <c r="D40" t="n">
-        <v>-37.3</v>
+        <v>-0.09526672000347958</v>
       </c>
       <c r="E40" t="n">
-        <v>1391.29</v>
+        <v>0.009075747940221375</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.9</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>37.80274794948554</v>
       </c>
       <c r="D41" t="n">
-        <v>-37.9</v>
+        <v>-0.09725205051446295</v>
       </c>
       <c r="E41" t="n">
-        <v>1436.41</v>
+        <v>0.009457961329267654</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.5</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>38.56262667401201</v>
       </c>
       <c r="D42" t="n">
-        <v>-38.5</v>
+        <v>0.06262667401200872</v>
       </c>
       <c r="E42" t="n">
-        <v>1482.25</v>
+        <v>0.003922100297806408</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.9</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>39.44100861461524</v>
       </c>
       <c r="D43" t="n">
-        <v>-38.9</v>
+        <v>0.5410086146152366</v>
       </c>
       <c r="E43" t="n">
-        <v>1513.21</v>
+        <v>0.2926903210878977</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>39.4</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>40.17533049045248</v>
       </c>
       <c r="D44" t="n">
-        <v>-39.4</v>
+        <v>0.7753304904524825</v>
       </c>
       <c r="E44" t="n">
-        <v>1552.36</v>
+        <v>0.6011373694252871</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>39.9</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>40.55671522623627</v>
       </c>
       <c r="D45" t="n">
-        <v>-39.9</v>
+        <v>0.6567152262362725</v>
       </c>
       <c r="E45" t="n">
-        <v>1592.01</v>
+        <v>0.4312748883705586</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>39.82127980303167</v>
       </c>
       <c r="D46" t="n">
-        <v>-40.1</v>
+        <v>-0.2787201969683295</v>
       </c>
       <c r="E46" t="n">
-        <v>1608.01</v>
+        <v>0.07768494819806439</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.6</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>41.07048346559269</v>
       </c>
       <c r="D47" t="n">
-        <v>-40.6</v>
+        <v>0.4704834655926859</v>
       </c>
       <c r="E47" t="n">
-        <v>1648.36</v>
+        <v>0.2213546913961041</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.9</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>41.20638962912913</v>
       </c>
       <c r="D48" t="n">
-        <v>-40.9</v>
+        <v>0.3063896291291286</v>
       </c>
       <c r="E48" t="n">
-        <v>1672.81</v>
+        <v>0.09387460483788497</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.2</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>40.99995527419783</v>
       </c>
       <c r="D49" t="n">
-        <v>-41.2</v>
+        <v>-0.2000447258021723</v>
       </c>
       <c r="E49" t="n">
-        <v>1697.44</v>
+        <v>0.04001789232126628</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.5</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>40.57784530211027</v>
       </c>
       <c r="D50" t="n">
-        <v>-41.5</v>
+        <v>-0.9221546978897308</v>
       </c>
       <c r="E50" t="n">
-        <v>1722.25</v>
+        <v>0.8503692868401007</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.8</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>40.81076977103093</v>
       </c>
       <c r="D51" t="n">
-        <v>-41.8</v>
+        <v>-0.9892302289690704</v>
       </c>
       <c r="E51" t="n">
-        <v>1747.24</v>
+        <v>0.9785764459061995</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1689.58</v>
+        <v>-1.467507383607021</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>57846.3466</v>
+        <v>7.944572788846846</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>1156.926932</v>
+        <v>0.1588914557769369</v>
       </c>
     </row>
   </sheetData>
